--- a/db/load/cdisc/ct/changes/2021-06-25/SDTM Terminology Changes 2021-06-25.xlsx
+++ b/db/load/cdisc/ct/changes/2021-06-25/SDTM Terminology Changes 2021-06-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-06-25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A2706-69E5-5A4F-A971-500831AFA6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE20ACA-AF4C-3D40-ADAB-CBD7DC54122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="36960" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="36960" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12017" uniqueCount="2239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12013" uniqueCount="2238">
   <si>
     <t>Release Date</t>
   </si>
@@ -6697,9 +6697,6 @@
   </si>
   <si>
     <t>C85492</t>
-  </si>
-  <si>
-    <t>C179750.</t>
   </si>
   <si>
     <t>C116103</t>
@@ -7173,9 +7170,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q1309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1161" sqref="I1161"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -9827,7 +9824,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44372</v>
       </c>
@@ -9862,24 +9859,13 @@
         <v>2189</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>2210</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>2213</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O68" s="16" t="s">
-        <v>2213</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q68" s="3" t="str">
-        <f>K68</f>
-        <v>Remove C85578 from codelist and replace with C179750.</v>
-      </c>
+        <v>2209</v>
+      </c>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -19007,7 +18993,7 @@
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
     </row>
-    <row r="303" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
         <v>44372</v>
       </c>
@@ -27619,7 +27605,7 @@
       <c r="P522" s="3"/>
       <c r="Q522" s="3"/>
     </row>
-    <row r="523" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
         <v>44372</v>
       </c>
@@ -29429,7 +29415,7 @@
       <c r="P568" s="3"/>
       <c r="Q568" s="3"/>
     </row>
-    <row r="569" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
         <v>44372</v>
       </c>
@@ -29546,7 +29532,7 @@
       <c r="P571" s="3"/>
       <c r="Q571" s="3"/>
     </row>
-    <row r="572" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
         <v>44372</v>
       </c>
@@ -52006,7 +51992,7 @@
         <v>117</v>
       </c>
       <c r="Q1146" s="3" t="str">
-        <f>K1146</f>
+        <f t="shared" ref="Q1146:Q1159" si="0">K1146</f>
         <v>Remove C25335 from codelist and replace with C74720.</v>
       </c>
     </row>
@@ -52060,7 +52046,7 @@
         <v>117</v>
       </c>
       <c r="Q1147" s="3" t="str">
-        <f>K1147</f>
+        <f t="shared" si="0"/>
         <v>Remove C25335 from codelist and replace with C74720.</v>
       </c>
     </row>
@@ -52112,7 +52098,7 @@
       </c>
       <c r="P1148" s="3"/>
       <c r="Q1148" s="3" t="str">
-        <f>K1148</f>
+        <f t="shared" si="0"/>
         <v>Remove from codelist. Modeling changes in the associated TAUG make this unnecessary to maintain as a published term.</v>
       </c>
     </row>
@@ -52164,7 +52150,7 @@
       </c>
       <c r="P1149" s="3"/>
       <c r="Q1149" s="3" t="str">
-        <f>K1149</f>
+        <f t="shared" si="0"/>
         <v>Remove from codelist. Modeling changes in the TAUG make this unnecessary to maintain as a published term.</v>
       </c>
     </row>
@@ -52216,7 +52202,7 @@
       </c>
       <c r="P1150" s="3"/>
       <c r="Q1150" s="3" t="str">
-        <f>K1150</f>
+        <f t="shared" si="0"/>
         <v>Remove C171536 from codelist and use any existing HODECOD value. The HODECOD value should reflect with whom or where the subject interacted, while the value 'TELEHEALTH VISIT' really describes 'how' the subject interacted with the caregiver. There is a published NSV CNTMODE (Mode of subject contact) that answers the question of 'how' with valid values such as REMOTE AUDIO, REMOTE AUDIO VIDEO, and TELEPHONE CALL, which better fits the description that a telehealth visit occurred.</v>
       </c>
     </row>
@@ -52270,7 +52256,7 @@
         <v>984</v>
       </c>
       <c r="Q1151" s="3" t="str">
-        <f>K1151</f>
+        <f t="shared" si="0"/>
         <v>Remove C25377 from codelist and replace with C179695.</v>
       </c>
     </row>
@@ -52324,7 +52310,7 @@
         <v>2218</v>
       </c>
       <c r="Q1152" s="3" t="str">
-        <f>K1152</f>
+        <f t="shared" si="0"/>
         <v>Remove C84818 from codelist and replace with C74905.</v>
       </c>
     </row>
@@ -52378,7 +52364,7 @@
         <v>2219</v>
       </c>
       <c r="Q1153" s="3" t="str">
-        <f>K1153</f>
+        <f t="shared" si="0"/>
         <v>Remove C92267 from codelist and replace with any one of the following terms: C179752,  C179754, or C179753</v>
       </c>
     </row>
@@ -52432,7 +52418,7 @@
         <v>974</v>
       </c>
       <c r="Q1154" s="3" t="str">
-        <f>K1154</f>
+        <f t="shared" si="0"/>
         <v>Remove C92268 from codelist and replace with C156529. C92268 will be merged into C156529.</v>
       </c>
     </row>
@@ -52474,19 +52460,19 @@
         <v>2210</v>
       </c>
       <c r="M1155" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="N1155" s="3" t="s">
         <v>923</v>
       </c>
       <c r="O1155" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="P1155" s="3" t="s">
         <v>984</v>
       </c>
       <c r="Q1155" s="3" t="str">
-        <f>K1155</f>
+        <f t="shared" si="0"/>
         <v>Remove C25377 from codelist and replace with C179695.</v>
       </c>
     </row>
@@ -52528,19 +52514,19 @@
         <v>2210</v>
       </c>
       <c r="M1156" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="N1156" s="3" t="s">
         <v>939</v>
       </c>
       <c r="O1156" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="P1156" s="3" t="s">
         <v>2218</v>
       </c>
       <c r="Q1156" s="3" t="str">
-        <f>K1156</f>
+        <f t="shared" si="0"/>
         <v>Remove C84818 from codelist and replace with C74905.</v>
       </c>
     </row>
@@ -52582,19 +52568,19 @@
         <v>2210</v>
       </c>
       <c r="M1157" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="N1157" s="3" t="s">
         <v>942</v>
       </c>
       <c r="O1157" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="P1157" s="3" t="s">
         <v>974</v>
       </c>
       <c r="Q1157" s="3" t="str">
-        <f>K1157</f>
+        <f t="shared" si="0"/>
         <v>Remove C92267 from codelist and replace with any one of the following terms: C179752,  C179754, or C179753</v>
       </c>
     </row>
@@ -52636,19 +52622,19 @@
         <v>2210</v>
       </c>
       <c r="M1158" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="N1158" s="3" t="s">
         <v>923</v>
       </c>
       <c r="O1158" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="P1158" s="3" t="s">
         <v>984</v>
       </c>
       <c r="Q1158" s="3" t="str">
-        <f>K1158</f>
+        <f t="shared" si="0"/>
         <v>Remove C92268 from codelist and replace with C156529. C92268 will be merged into C156529.</v>
       </c>
     </row>
@@ -52695,14 +52681,14 @@
       <c r="N1159" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="O1159" s="3" t="s">
-        <v>2220</v>
+      <c r="O1159" s="16" t="s">
+        <v>2213</v>
       </c>
       <c r="P1159" s="3" t="s">
-        <v>2221</v>
+        <v>230</v>
       </c>
       <c r="Q1159" s="3" t="str">
-        <f>K1159</f>
+        <f t="shared" si="0"/>
         <v>Remove C85578 from codelist and replace with C179750.</v>
       </c>
     </row>
@@ -52744,19 +52730,19 @@
         <v>2210</v>
       </c>
       <c r="M1160" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="N1160" s="3" t="s">
         <v>1086</v>
       </c>
       <c r="O1160" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="P1160" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="Q1160" s="3" t="str">
-        <f t="shared" ref="Q1160:Q1181" si="0">K1160</f>
+        <f t="shared" ref="Q1160:Q1181" si="1">K1160</f>
         <v>Remove C154865 from codelist and replace with C94866.</v>
       </c>
     </row>
@@ -52798,19 +52784,19 @@
         <v>2210</v>
       </c>
       <c r="M1161" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="N1161" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O1161" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="P1161" s="3" t="s">
         <v>117</v>
       </c>
       <c r="Q1161" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C25335 from codelist and replace with C74720.</v>
       </c>
     </row>
@@ -52852,19 +52838,19 @@
         <v>2210</v>
       </c>
       <c r="M1162" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="N1162" s="3" t="s">
         <v>1086</v>
       </c>
       <c r="O1162" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="P1162" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="Q1162" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C154865 from codelist and replace with C94866.</v>
       </c>
     </row>
@@ -52906,19 +52892,19 @@
         <v>2210</v>
       </c>
       <c r="M1163" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="N1163" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O1163" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="P1163" s="3" t="s">
         <v>117</v>
       </c>
       <c r="Q1163" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C25335 from codelist and replace with C74720.</v>
       </c>
     </row>
@@ -52960,19 +52946,19 @@
         <v>2210</v>
       </c>
       <c r="M1164" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1164" s="3" t="s">
         <v>1259</v>
       </c>
       <c r="O1164" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1164" s="3" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="Q1164" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156565 from codelist and replace with C156578. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53014,19 +53000,19 @@
         <v>2210</v>
       </c>
       <c r="M1165" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1165" s="3" t="s">
         <v>1263</v>
       </c>
       <c r="O1165" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1165" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="Q1165" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156566 from codelist and replace with C156577. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53068,19 +53054,19 @@
         <v>2210</v>
       </c>
       <c r="M1166" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1166" s="3" t="s">
         <v>1265</v>
       </c>
       <c r="O1166" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1166" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="Q1166" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156567 from codelist and replace with C176237. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53122,19 +53108,19 @@
         <v>2210</v>
       </c>
       <c r="M1167" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1167" s="3" t="s">
         <v>1267</v>
       </c>
       <c r="O1167" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1167" s="3" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="Q1167" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156568 from codelist and replace with C176351. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53176,19 +53162,19 @@
         <v>2210</v>
       </c>
       <c r="M1168" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1168" s="3" t="s">
         <v>1269</v>
       </c>
       <c r="O1168" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1168" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="Q1168" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156569 from codelist and replace with C156579. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53230,19 +53216,19 @@
         <v>2210</v>
       </c>
       <c r="M1169" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1169" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="O1169" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1169" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="Q1169" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C170615 from codelist and replace with C176236. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53284,19 +53270,19 @@
         <v>2210</v>
       </c>
       <c r="M1170" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1170" s="3" t="s">
         <v>1259</v>
       </c>
       <c r="O1170" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="P1170" s="3" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="Q1170" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156565 from codelist and replace with C156578. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53338,19 +53324,19 @@
         <v>2210</v>
       </c>
       <c r="M1171" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1171" s="3" t="s">
         <v>1263</v>
       </c>
       <c r="O1171" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="P1171" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="Q1171" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156566 from codelist and replace with C156577. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53392,19 +53378,19 @@
         <v>2210</v>
       </c>
       <c r="M1172" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1172" s="3" t="s">
         <v>1265</v>
       </c>
       <c r="O1172" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="P1172" s="3" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="Q1172" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156567 from codelist and replace with C176237. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53446,19 +53432,19 @@
         <v>2210</v>
       </c>
       <c r="M1173" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1173" s="3" t="s">
         <v>1267</v>
       </c>
       <c r="O1173" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="P1173" s="3" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="Q1173" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156568 from codelist and replace with C176351. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53500,19 +53486,19 @@
         <v>2210</v>
       </c>
       <c r="M1174" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1174" s="3" t="s">
         <v>1269</v>
       </c>
       <c r="O1174" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="P1174" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="Q1174" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C156569 from codelist and replace with C156579. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53554,19 +53540,19 @@
         <v>2210</v>
       </c>
       <c r="M1175" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1175" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="O1175" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="P1175" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="Q1175" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C170615 from codelist and replace with C176236. Specify the ratio relationship in the PPANMETH variable.</v>
       </c>
     </row>
@@ -53608,19 +53594,19 @@
         <v>2210</v>
       </c>
       <c r="M1176" s="3" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="N1176" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="O1176" s="3" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="P1176" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="Q1176" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C135499 from codelist and replace with C94866.</v>
       </c>
     </row>
@@ -53662,19 +53648,19 @@
         <v>2210</v>
       </c>
       <c r="M1177" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="N1177" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="O1177" s="3" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="P1177" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="Q1177" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C135499 from codelist and replace with C94866.</v>
       </c>
     </row>
@@ -53716,19 +53702,19 @@
         <v>2210</v>
       </c>
       <c r="M1178" s="3" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="N1178" s="3" t="s">
         <v>1879</v>
       </c>
       <c r="O1178" s="3" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="P1178" s="3" t="s">
         <v>1881</v>
       </c>
       <c r="Q1178" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C172601 from the codelist and replace with C179818.</v>
       </c>
     </row>
@@ -53770,19 +53756,19 @@
         <v>2210</v>
       </c>
       <c r="M1179" s="3" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="N1179" s="3" t="s">
         <v>1879</v>
       </c>
       <c r="O1179" s="3" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="P1179" s="3" t="s">
         <v>1881</v>
       </c>
       <c r="Q1179" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C172601 from the codelist and replace with C179818.</v>
       </c>
     </row>
@@ -53824,19 +53810,19 @@
         <v>2210</v>
       </c>
       <c r="M1180" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="N1180" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O1180" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="P1180" s="3" t="s">
         <v>117</v>
       </c>
       <c r="Q1180" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C25335 from codelist and replace with C74720.</v>
       </c>
     </row>
@@ -53878,23 +53864,23 @@
         <v>2210</v>
       </c>
       <c r="M1181" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="N1181" s="3" t="s">
         <v>115</v>
       </c>
       <c r="O1181" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P1181" s="3" t="s">
         <v>117</v>
       </c>
       <c r="Q1181" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Remove C25335 from codelist and replace with C74720.</v>
       </c>
     </row>
-    <row r="1182" spans="1:17" ht="345" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:17" ht="384" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1182" s="6">
         <v>44372</v>
       </c>
@@ -53972,7 +53958,7 @@
       <c r="P1183" s="3"/>
       <c r="Q1183" s="3"/>
     </row>
-    <row r="1184" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1184" s="6">
         <v>44372</v>
       </c>
@@ -54011,7 +53997,7 @@
       <c r="P1184" s="3"/>
       <c r="Q1184" s="3"/>
     </row>
-    <row r="1185" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1185" s="6">
         <v>44372</v>
       </c>
@@ -54050,7 +54036,7 @@
       <c r="P1185" s="3"/>
       <c r="Q1185" s="3"/>
     </row>
-    <row r="1186" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1186" s="6">
         <v>44372</v>
       </c>
@@ -54206,7 +54192,7 @@
       <c r="P1189" s="3"/>
       <c r="Q1189" s="3"/>
     </row>
-    <row r="1190" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1190" s="6">
         <v>44372</v>
       </c>
@@ -54245,7 +54231,7 @@
       <c r="P1190" s="3"/>
       <c r="Q1190" s="3"/>
     </row>
-    <row r="1191" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1191" s="6">
         <v>44372</v>
       </c>
@@ -54284,7 +54270,7 @@
       <c r="P1191" s="3"/>
       <c r="Q1191" s="3"/>
     </row>
-    <row r="1192" spans="1:17" ht="140" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1192" s="6">
         <v>44372</v>
       </c>
@@ -54362,7 +54348,7 @@
       <c r="P1193" s="3"/>
       <c r="Q1193" s="3"/>
     </row>
-    <row r="1194" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1194" s="6">
         <v>44372</v>
       </c>
@@ -54518,7 +54504,7 @@
       <c r="P1197" s="3"/>
       <c r="Q1197" s="3"/>
     </row>
-    <row r="1198" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:17" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1198" s="6">
         <v>44372</v>
       </c>
@@ -54635,7 +54621,7 @@
       <c r="P1200" s="3"/>
       <c r="Q1200" s="3"/>
     </row>
-    <row r="1201" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1201" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1201" s="6">
         <v>44372</v>
       </c>
@@ -54674,7 +54660,7 @@
       <c r="P1201" s="3"/>
       <c r="Q1201" s="3"/>
     </row>
-    <row r="1202" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1202" s="6">
         <v>44372</v>
       </c>
@@ -56078,7 +56064,7 @@
       <c r="P1237" s="3"/>
       <c r="Q1237" s="3"/>
     </row>
-    <row r="1238" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1238" s="6">
         <v>44372</v>
       </c>
@@ -57443,7 +57429,7 @@
       <c r="P1272" s="3"/>
       <c r="Q1272" s="3"/>
     </row>
-    <row r="1273" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1273" s="6">
         <v>44372</v>
       </c>
@@ -57677,7 +57663,7 @@
       <c r="P1278" s="3"/>
       <c r="Q1278" s="3"/>
     </row>
-    <row r="1279" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1279" s="6">
         <v>44372</v>
       </c>
@@ -57716,7 +57702,7 @@
       <c r="P1279" s="3"/>
       <c r="Q1279" s="3"/>
     </row>
-    <row r="1280" spans="1:17" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1280" s="6">
         <v>44372</v>
       </c>
@@ -57755,7 +57741,7 @@
       <c r="P1280" s="3"/>
       <c r="Q1280" s="3"/>
     </row>
-    <row r="1281" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1281" s="6">
         <v>44372</v>
       </c>
@@ -57833,7 +57819,7 @@
       <c r="P1282" s="3"/>
       <c r="Q1282" s="3"/>
     </row>
-    <row r="1283" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:17" ht="70" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1283" s="6">
         <v>44372</v>
       </c>
@@ -58535,7 +58521,7 @@
       <c r="P1300" s="3"/>
       <c r="Q1300" s="3"/>
     </row>
-    <row r="1301" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1301" s="6">
         <v>44372</v>
       </c>
@@ -58730,7 +58716,7 @@
       <c r="P1305" s="3"/>
       <c r="Q1305" s="3"/>
     </row>
-    <row r="1306" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:17" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1306" s="6">
         <v>44372</v>
       </c>
